--- a/output/fit_clients/fit_round_161.xlsx
+++ b/output/fit_clients/fit_round_161.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2277867922.597721</v>
+        <v>1931233744.047359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08111299683560047</v>
+        <v>0.0932950463687303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03214775539514274</v>
+        <v>0.03764379287042396</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1138933994.244686</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2183588031.991831</v>
+        <v>2099878705.255751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1543364272181149</v>
+        <v>0.1627184654279479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03659574114775957</v>
+        <v>0.0408733202069965</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1091794084.451578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4480668872.242325</v>
+        <v>4299969441.096128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1343493646011469</v>
+        <v>0.146583455425552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03624915393670806</v>
+        <v>0.02587197812653808</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2240334484.323916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3793942675.666041</v>
+        <v>2612503590.474948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09121383050177818</v>
+        <v>0.08182770067485205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0507811895792414</v>
+        <v>0.03513061757267293</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1896971355.133606</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2200384766.555164</v>
+        <v>2622755471.671972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1069685855640943</v>
+        <v>0.1129195887752231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05454327348842421</v>
+        <v>0.04838436732108425</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1100192391.156268</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2257466109.040568</v>
+        <v>2088429759.621097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07308703643069714</v>
+        <v>0.06782189170234294</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04504155468428361</v>
+        <v>0.04870603793851915</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1128733090.868172</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2431334033.102859</v>
+        <v>3958521315.615124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1451877700340649</v>
+        <v>0.1416187261497091</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02385383981045082</v>
+        <v>0.02198385545170455</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1215667015.902099</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2246792742.420464</v>
+        <v>1460520643.284408</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1695283626854689</v>
+        <v>0.1741543230682518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02387703963198828</v>
+        <v>0.02280842325623423</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1123396363.550498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5508426822.180572</v>
+        <v>5205059534.922817</v>
       </c>
       <c r="F10" t="n">
-        <v>0.148549657037042</v>
+        <v>0.1319140122106208</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04936396226722375</v>
+        <v>0.03983398407368838</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>68</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2754213549.727149</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4101484353.677391</v>
+        <v>3079098827.026399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1320092652385875</v>
+        <v>0.1846138287660203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04582057017179657</v>
+        <v>0.03289637528973365</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2050742196.53825</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2435814907.826168</v>
+        <v>2923429165.705793</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1360302025622737</v>
+        <v>0.1427515594010028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05185057810882849</v>
+        <v>0.03911770589382759</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>56</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1217907420.244579</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3529471443.790445</v>
+        <v>4586425050.338691</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07944998212801992</v>
+        <v>0.09416990908106807</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02370912247587069</v>
+        <v>0.0250371577603482</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>54</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1764735800.687491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2587096963.993424</v>
+        <v>3120073713.642825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1471530286595098</v>
+        <v>0.1289457663875488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04290810182319681</v>
+        <v>0.03879956537669638</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1293548546.30851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1349391968.929927</v>
+        <v>1207291358.791555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08320577350502643</v>
+        <v>0.1065439191036916</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04411034616682525</v>
+        <v>0.03688072051913301</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>674696035.7867838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2182298513.839741</v>
+        <v>2888757283.230832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1033480193244044</v>
+        <v>0.09796077321913421</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03189140827148592</v>
+        <v>0.03605233750688849</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1091149316.088874</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4144167227.438134</v>
+        <v>3355761292.491456</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1111628818453106</v>
+        <v>0.1080715620718482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.036143177007017</v>
+        <v>0.04094447335520485</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>47</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2072083641.112478</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3518696329.473377</v>
+        <v>3993105545.721298</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1417064590895029</v>
+        <v>0.1500474473579879</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02240750007430697</v>
+        <v>0.02363119595833873</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1759348157.370563</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1043930574.903084</v>
+        <v>992747985.9246808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1493561789411895</v>
+        <v>0.1608129109927766</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02278022589022783</v>
+        <v>0.02037928562150151</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>521965327.3535679</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1935908824.794147</v>
+        <v>2527964886.005214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1367441514868234</v>
+        <v>0.09801847568755752</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02413487900739469</v>
+        <v>0.02117945550635781</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>967954445.5159906</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2062507219.260641</v>
+        <v>1930934086.053761</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09463391190028943</v>
+        <v>0.08692023340726836</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04157567990171628</v>
+        <v>0.03411326356756295</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1031253639.545587</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2828224473.960319</v>
+        <v>3494270844.068293</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09310532329142159</v>
+        <v>0.08896452642549151</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05478920011414378</v>
+        <v>0.0414317783313931</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1414112308.767142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1170996973.01478</v>
+        <v>1534302399.975823</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1530308105235783</v>
+        <v>0.1749688905543743</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0487159213979313</v>
+        <v>0.04579636311278865</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>585498527.8545394</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3888515656.243702</v>
+        <v>2775353691.586715</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1386418031159578</v>
+        <v>0.09156974457981602</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03113357925380457</v>
+        <v>0.02738630366296243</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>47</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1944257803.586984</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1040127225.906645</v>
+        <v>1042497301.483927</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1087467037907588</v>
+        <v>0.1149687929142777</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02434889509882632</v>
+        <v>0.02849392169289413</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>520063667.6683403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>985459907.8040975</v>
+        <v>1334531754.97171</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1220142218952394</v>
+        <v>0.09549612322226764</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03824074974009191</v>
+        <v>0.03257915474750838</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>492729922.4342045</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3870604447.479647</v>
+        <v>3510851889.504327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1218747053529371</v>
+        <v>0.1212445024682126</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01991062454763274</v>
+        <v>0.02529153627708347</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1935302240.285104</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3720983112.728827</v>
+        <v>3076623742.894433</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1473559548062827</v>
+        <v>0.0995621351605151</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04537285509550384</v>
+        <v>0.04130518929432701</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>52</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1860491630.13191</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4468581994.186262</v>
+        <v>4385054257.349498</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1429257420318914</v>
+        <v>0.09893327309444248</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04492418230281479</v>
+        <v>0.02970986725914409</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>72</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2234290981.444852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2343399405.278802</v>
+        <v>2223987942.70948</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1288430493961129</v>
+        <v>0.1240445756635372</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03067114249591698</v>
+        <v>0.03017733596914608</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1171699779.199443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1121577360.966551</v>
+        <v>1392717147.712822</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1105218250696472</v>
+        <v>0.09090875546045633</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04081947874790218</v>
+        <v>0.04022812972268695</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>560788650.3773936</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1531660950.458838</v>
+        <v>1268358616.3322</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1070686975645878</v>
+        <v>0.07577711197750399</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02831098832300957</v>
+        <v>0.03270867631913196</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>765830550.102702</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2406858422.730416</v>
+        <v>2249207772.907872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1392644337056131</v>
+        <v>0.1890616190071946</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0413410007466856</v>
+        <v>0.05842759187294179</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1203429257.460842</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>980190493.4455341</v>
+        <v>990051132.805523</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1201080523908521</v>
+        <v>0.08685031122593681</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01918259938372959</v>
+        <v>0.02617290931229865</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>490095287.7625864</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1296030872.042285</v>
+        <v>1200306860.526925</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1082293022948818</v>
+        <v>0.1027249416522544</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03665613520206472</v>
+        <v>0.03688678190112192</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>648015389.6437707</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2791363218.352391</v>
+        <v>2249101295.199934</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1249873861162996</v>
+        <v>0.1329117550912508</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02499722590460076</v>
+        <v>0.02273140084957793</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1395681607.775264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2257313805.346881</v>
+        <v>2087775662.419629</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1084594265211486</v>
+        <v>0.06819637146858706</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02686243203821543</v>
+        <v>0.03986424325084675</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>44</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1128656965.345463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1582098528.964985</v>
+        <v>1662429020.266891</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07490054142351175</v>
+        <v>0.1102479533853444</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03193427844911016</v>
+        <v>0.02555340218271687</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>791049302.106095</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1482641680.247968</v>
+        <v>1544201399.635345</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1652523190527064</v>
+        <v>0.1286578296091406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02764951167964285</v>
+        <v>0.02175766564104542</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>741320913.1590455</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1529556749.664898</v>
+        <v>1227421497.003464</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1601931305304732</v>
+        <v>0.1200570829180212</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04454416054404638</v>
+        <v>0.03765402433172759</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>764778333.5995926</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1877932889.974389</v>
+        <v>2770406740.92105</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1110548576435226</v>
+        <v>0.14397776453398</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04548666756834355</v>
+        <v>0.03753809547339666</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>40</v>
-      </c>
-      <c r="J41" t="n">
-        <v>938966531.1112422</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3591282421.461984</v>
+        <v>3715890853.238488</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09666886982325222</v>
+        <v>0.08614440642872208</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03019391627874127</v>
+        <v>0.03978492416274577</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>54</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1795641211.832443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2656233642.420745</v>
+        <v>2224960303.608174</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1527724642281119</v>
+        <v>0.162425440809728</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0180165659697388</v>
+        <v>0.01645315194877379</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>56</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1328116854.111386</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2210443636.825489</v>
+        <v>2277689074.204012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08318480222131223</v>
+        <v>0.0872628851594643</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03422650921202498</v>
+        <v>0.03645756422633195</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1105221966.709474</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1981043706.07333</v>
+        <v>2212461725.683281</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1599557721982427</v>
+        <v>0.1742304624774527</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05388910333290937</v>
+        <v>0.04462612817781409</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>990521841.9618504</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4865024899.695714</v>
+        <v>3724836354.327169</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1512924096023918</v>
+        <v>0.1502126901232048</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03785746476410185</v>
+        <v>0.05472491625440581</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>57</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2432512468.871812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4321579971.761979</v>
+        <v>4640853391.776105</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1941624798232839</v>
+        <v>0.168075729100485</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05655275844879042</v>
+        <v>0.05411439327469953</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>43</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2160790003.191507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3634101529.377367</v>
+        <v>2937509745.159706</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08753603026542345</v>
+        <v>0.09682415444183737</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03816363663573873</v>
+        <v>0.03067273962506302</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1817050820.27694</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1335992250.33687</v>
+        <v>1686327168.595012</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1930978640946042</v>
+        <v>0.1323274551913996</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04175780151831848</v>
+        <v>0.02910485894657508</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>667996182.675797</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3730978798.740822</v>
+        <v>3915566916.980229</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1239210286576459</v>
+        <v>0.1550704560634531</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04966942565899989</v>
+        <v>0.03555808153568964</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>55</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1865489407.165272</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1363770342.894786</v>
+        <v>1287260688.666188</v>
       </c>
       <c r="F51" t="n">
-        <v>0.124708338045741</v>
+        <v>0.1613573298643945</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03437426761476143</v>
+        <v>0.0379406102427281</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>681885196.4220579</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5044371597.601202</v>
+        <v>4217126841.797016</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1376810381328905</v>
+        <v>0.1358069534237092</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05239682546783958</v>
+        <v>0.04597295496450567</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>66</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2522185793.777813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2996290109.48589</v>
+        <v>3491032302.478739</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1839937023721898</v>
+        <v>0.1762039453976298</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03204278098567705</v>
+        <v>0.02317620702655518</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>46</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1498145087.369606</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4543454532.67181</v>
+        <v>3469474075.105481</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1576515842184275</v>
+        <v>0.1495447592774488</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03962811132843682</v>
+        <v>0.03354435022844462</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2271727373.062923</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3454046722.840132</v>
+        <v>3049327496.409611</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1455251530147347</v>
+        <v>0.199939057016074</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03147145925903692</v>
+        <v>0.02160305714911848</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1727023312.187315</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1476095192.834402</v>
+        <v>1192675597.558218</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1276939843113833</v>
+        <v>0.1203851052649416</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04177633051554094</v>
+        <v>0.04086077172797382</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>738047642.1930878</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4395491462.766722</v>
+        <v>4135854734.538234</v>
       </c>
       <c r="F57" t="n">
-        <v>0.176573070119938</v>
+        <v>0.1370583280059797</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02737283608521033</v>
+        <v>0.02256946886461848</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>51</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2197745852.928411</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1278751756.286459</v>
+        <v>1584681549.286322</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1737321265152628</v>
+        <v>0.1416691888828593</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03334404116930989</v>
+        <v>0.02654440506625297</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>639375929.4412796</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4983961399.920368</v>
+        <v>4848295873.787855</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1026524913696919</v>
+        <v>0.08843146614943447</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03226412925711375</v>
+        <v>0.03291195413107443</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2491980628.414902</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2479900207.935321</v>
+        <v>3228129503.127109</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1690446392373584</v>
+        <v>0.1432379495807672</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02810171212167593</v>
+        <v>0.02985815849350342</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1239950119.729527</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3095785993.522617</v>
+        <v>2473240222.5296</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1569749238503261</v>
+        <v>0.1394912654620785</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02439332070513425</v>
+        <v>0.03266308388123696</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>55</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1547892968.163081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1348417290.726173</v>
+        <v>1396789381.50255</v>
       </c>
       <c r="F62" t="n">
-        <v>0.187505546754487</v>
+        <v>0.1792058958793716</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03753187161805126</v>
+        <v>0.03710080201869193</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>674208605.6069233</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4034452980.232243</v>
+        <v>5012595634.976936</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07389329817454174</v>
+        <v>0.07994333048417715</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04388775759095099</v>
+        <v>0.02927105477721021</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2017226550.919896</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5471870612.904369</v>
+        <v>4974476551.958466</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1572437627912412</v>
+        <v>0.1715252581016569</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02798266261937789</v>
+        <v>0.03354593836069634</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>50</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2735935445.809721</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5930770735.489481</v>
+        <v>3868919203.764894</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642060967191813</v>
+        <v>0.1721720694382699</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03059542615950047</v>
+        <v>0.02113019604769346</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>58</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2965385271.095687</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4023379029.006008</v>
+        <v>5169243262.457878</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1609901303813149</v>
+        <v>0.1190302499792328</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03662322366335543</v>
+        <v>0.04461849467081719</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>47</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2011689489.336244</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2689352213.095691</v>
+        <v>2931187117.835311</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06990426514386577</v>
+        <v>0.06258436963328126</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03423363082721723</v>
+        <v>0.03829558692558521</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>52</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1344676151.046126</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4576958889.501322</v>
+        <v>3681808594.061886</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1585320466103733</v>
+        <v>0.1163332152119549</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04942390935895561</v>
+        <v>0.05105153489931049</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>52</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2288479475.477438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2088171003.953906</v>
+        <v>2151693229.176933</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1666976018100371</v>
+        <v>0.1801162388924584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04853493580943093</v>
+        <v>0.04426030347168895</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1044085518.274954</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2581018861.935719</v>
+        <v>3713831140.245205</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06715419379535152</v>
+        <v>0.07836695243337388</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04061567133332952</v>
+        <v>0.03318862858373241</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>46</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1290509380.727052</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4530609089.969378</v>
+        <v>5005876807.874516</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1417539010039459</v>
+        <v>0.1477144754435407</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02674490488528953</v>
+        <v>0.03300036384476433</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>58</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2265304615.601754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1616559750.617725</v>
+        <v>1586488390.517367</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0668001900704442</v>
+        <v>0.1051687908081015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03465829559058509</v>
+        <v>0.03942873379812219</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>808279883.4734733</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2382927398.280416</v>
+        <v>2658675281.313607</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08679489720595268</v>
+        <v>0.09626366903067098</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04465722834603014</v>
+        <v>0.04089432402719751</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1191463751.574261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2932820581.480927</v>
+        <v>3002363558.891559</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1205910442013549</v>
+        <v>0.1703479667948243</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02283208924848614</v>
+        <v>0.03413001616221853</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>55</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1466410361.908119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2443001838.627981</v>
+        <v>1981761420.708825</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1398309090259997</v>
+        <v>0.1188740926184459</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02693378964165054</v>
+        <v>0.03121693595440551</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1221500841.982288</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3586209172.142357</v>
+        <v>4764080290.676789</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1099172353518439</v>
+        <v>0.09750904903604635</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02553339177264289</v>
+        <v>0.02986126929132417</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1793104553.416269</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2168824306.380887</v>
+        <v>1472959071.875785</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1195288786254833</v>
+        <v>0.1387383233668205</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02501816853969078</v>
+        <v>0.03046018725419505</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1084412239.641816</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3259553925.078865</v>
+        <v>3001686577.798344</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08891928455071844</v>
+        <v>0.1028382363653923</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04266398224099568</v>
+        <v>0.03976204633472571</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>56</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1629776981.234712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1748825466.509537</v>
+        <v>1758209839.632486</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1318574376200394</v>
+        <v>0.1558910109406257</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04026619847789663</v>
+        <v>0.03293911142963217</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>874412810.9491447</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3459029824.949593</v>
+        <v>4983741963.900676</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06880182631961332</v>
+        <v>0.07268539424047139</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03221784285351514</v>
+        <v>0.02525463921206986</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>33</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1729514885.002664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4006883234.636266</v>
+        <v>4678617846.681667</v>
       </c>
       <c r="F81" t="n">
-        <v>0.126718729355998</v>
+        <v>0.08331036243972448</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03173552148314665</v>
+        <v>0.02321347534263523</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2003441580.758276</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5141699012.011806</v>
+        <v>5660719753.473262</v>
       </c>
       <c r="F82" t="n">
-        <v>0.146512359223936</v>
+        <v>0.139445222900207</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02636435095743784</v>
+        <v>0.02701359206939248</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>58</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2570849482.006618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1917277768.692592</v>
+        <v>2300145227.539028</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1143160191839218</v>
+        <v>0.1121652313536316</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02766696499953438</v>
+        <v>0.03519757190472059</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>958638859.3615693</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2122066746.149401</v>
+        <v>1638248632.602368</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1140196108477609</v>
+        <v>0.07618187103805761</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03960133010000023</v>
+        <v>0.05019897764989507</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1061033360.206213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2416004595.75846</v>
+        <v>3554064906.295339</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1193939934342938</v>
+        <v>0.1513997459224201</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05313243647686734</v>
+        <v>0.04610298304928782</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>61</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1208002293.514492</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2634827543.289174</v>
+        <v>2576009946.911117</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1212714749751104</v>
+        <v>0.1046554897125402</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0250475231930571</v>
+        <v>0.02281322705334319</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>20</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1317413887.531507</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1031618400.543379</v>
+        <v>1486482978.794138</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1739836676332145</v>
+        <v>0.1425203044336679</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04115530203886786</v>
+        <v>0.03061473589719399</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>515809212.6615362</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3338636126.591486</v>
+        <v>2951440852.314138</v>
       </c>
       <c r="F88" t="n">
-        <v>0.121138420960229</v>
+        <v>0.1624400362702192</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03799660444643362</v>
+        <v>0.03651031821131766</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>64</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1669318127.164231</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3457932150.975949</v>
+        <v>2812062109.758894</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1203867583708043</v>
+        <v>0.1269540168065196</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02623378144585114</v>
+        <v>0.0325631993830036</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>55</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1728966079.99582</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1441065558.532835</v>
+        <v>1663333979.809727</v>
       </c>
       <c r="F90" t="n">
-        <v>0.118989281303271</v>
+        <v>0.1289991922508547</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04967571201235239</v>
+        <v>0.03958323737341185</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>720532747.1767316</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1601157892.698107</v>
+        <v>1949360744.042553</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1908976184821264</v>
+        <v>0.1197315891906806</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05465488010623241</v>
+        <v>0.0521093405449676</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>800578971.7351978</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2773900107.238909</v>
+        <v>2628979509.53245</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09694010468864214</v>
+        <v>0.08566485621681993</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04773955478798279</v>
+        <v>0.03354589180743878</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>39</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1386950058.223347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4912175623.152744</v>
+        <v>4064126342.908451</v>
       </c>
       <c r="F93" t="n">
-        <v>0.120426929319467</v>
+        <v>0.1167573100009232</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05453267886285342</v>
+        <v>0.0504087602333391</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2456087753.178364</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2406368784.217515</v>
+        <v>1728581359.228276</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1385927717112166</v>
+        <v>0.113390882287044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03025965357321304</v>
+        <v>0.03497751600461187</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1203184443.292331</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2291343685.849451</v>
+        <v>2095130803.355299</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08711562468834654</v>
+        <v>0.09456159937348339</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03884624381510329</v>
+        <v>0.03691756633272164</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1145671894.147903</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1612045901.146852</v>
+        <v>1519173933.721515</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1052410826996498</v>
+        <v>0.1291187003851576</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03896694938585078</v>
+        <v>0.03753104092764561</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>806022978.9488918</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3983975214.082179</v>
+        <v>3281755387.052903</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364473626689708</v>
+        <v>0.1347289800364737</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02072947191220193</v>
+        <v>0.02724119061464658</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1991987662.098017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3522142462.508385</v>
+        <v>2634169130.28241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1080918586871491</v>
+        <v>0.09840479023590454</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02347320741237277</v>
+        <v>0.03173037804568487</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>42</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1761071251.319094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3069469027.919558</v>
+        <v>2662409658.467587</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1431866084252788</v>
+        <v>0.1120293284345949</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02203403582580935</v>
+        <v>0.02934851586082096</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1534734504.89134</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4537126549.801803</v>
+        <v>2943242525.659329</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1773826656836006</v>
+        <v>0.1667883911660597</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02680610822947246</v>
+        <v>0.02236377959562654</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>49</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2268563388.422493</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2424261073.09703</v>
+        <v>3118471921.667226</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1649823501812082</v>
+        <v>0.1341352207034969</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04797020082404223</v>
+        <v>0.04707165174333576</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1212130549.471919</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_161.xlsx
+++ b/output/fit_clients/fit_round_161.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1931233744.047359</v>
+        <v>2084462410.010365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0932950463687303</v>
+        <v>0.1023757032519266</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03764379287042396</v>
+        <v>0.02908010359585333</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2099878705.255751</v>
+        <v>2355748032.269311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1627184654279479</v>
+        <v>0.1730273545931457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0408733202069965</v>
+        <v>0.04856831879901327</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4299969441.096128</v>
+        <v>4429317199.326627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146583455425552</v>
+        <v>0.1282347465516237</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02587197812653808</v>
+        <v>0.03016013729061434</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2612503590.474948</v>
+        <v>4220856652.654757</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08182770067485205</v>
+        <v>0.07199527738361552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03513061757267293</v>
+        <v>0.03916998423719089</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2622755471.671972</v>
+        <v>2427939395.111906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1129195887752231</v>
+        <v>0.1313500823281418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04838436732108425</v>
+        <v>0.04159285661440458</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2088429759.621097</v>
+        <v>2451526115.311738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06782189170234294</v>
+        <v>0.08824117637256784</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04870603793851915</v>
+        <v>0.04058884180234969</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3958521315.615124</v>
+        <v>3617510475.87108</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1416187261497091</v>
+        <v>0.1736563816368155</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02198385545170455</v>
+        <v>0.0254424777933972</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1460520643.284408</v>
+        <v>1663919118.543728</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1741543230682518</v>
+        <v>0.1260371362361838</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02280842325623423</v>
+        <v>0.03240951575074695</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5205059534.922817</v>
+        <v>5678688387.634124</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1319140122106208</v>
+        <v>0.1764932130627477</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03983398407368838</v>
+        <v>0.04340187856302243</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3079098827.026399</v>
+        <v>2870811148.436252</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1846138287660203</v>
+        <v>0.1151801042292259</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03289637528973365</v>
+        <v>0.04313859965925834</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2923429165.705793</v>
+        <v>2151329695.29602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1427515594010028</v>
+        <v>0.1204471730347161</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03911770589382759</v>
+        <v>0.04003809431148452</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4586425050.338691</v>
+        <v>3594012894.340349</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09416990908106807</v>
+        <v>0.07695485905429875</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0250371577603482</v>
+        <v>0.02867996242047534</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3120073713.642825</v>
+        <v>2924827874.098326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1289457663875488</v>
+        <v>0.1595201998567021</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03879956537669638</v>
+        <v>0.03056506044258373</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1207291358.791555</v>
+        <v>1312475227.579319</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1065439191036916</v>
+        <v>0.08708579350052237</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03688072051913301</v>
+        <v>0.04593464639478536</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2888757283.230832</v>
+        <v>1983864273.96837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09796077321913421</v>
+        <v>0.1066028316525552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03605233750688849</v>
+        <v>0.03980390322587266</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3355761292.491456</v>
+        <v>4370930298.020926</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1080715620718482</v>
+        <v>0.1087220792898037</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04094447335520485</v>
+        <v>0.04682202825336979</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3993105545.721298</v>
+        <v>3150702985.968194</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1500474473579879</v>
+        <v>0.1276686464503136</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02363119595833873</v>
+        <v>0.03206932119934534</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>992747985.9246808</v>
+        <v>1208338607.806265</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608129109927766</v>
+        <v>0.1392749257681913</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02037928562150151</v>
+        <v>0.01853604445103302</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2527964886.005214</v>
+        <v>1987227002.980768</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09801847568755752</v>
+        <v>0.1594153383306429</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02117945550635781</v>
+        <v>0.02835299066433091</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1930934086.053761</v>
+        <v>1816624042.677022</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08692023340726836</v>
+        <v>0.08593248745536085</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03411326356756295</v>
+        <v>0.04542984172189491</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3494270844.068293</v>
+        <v>3497012975.562746</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08896452642549151</v>
+        <v>0.09400429719295296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0414317783313931</v>
+        <v>0.03545176617876712</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1534302399.975823</v>
+        <v>1326604140.54689</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1749688905543743</v>
+        <v>0.127002579579106</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04579636311278865</v>
+        <v>0.05260565161883382</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2775353691.586715</v>
+        <v>3622789921.22136</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09156974457981602</v>
+        <v>0.1349619086663501</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02738630366296243</v>
+        <v>0.02272411179617943</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1042497301.483927</v>
+        <v>1256277235.063541</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1149687929142777</v>
+        <v>0.0930180565618515</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02849392169289413</v>
+        <v>0.02597264185738006</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1334531754.97171</v>
+        <v>1372062135.361277</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09549612322226764</v>
+        <v>0.1197777347610764</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03257915474750838</v>
+        <v>0.02514363881009686</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3510851889.504327</v>
+        <v>2900981497.74542</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212445024682126</v>
+        <v>0.1303507402339121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02529153627708347</v>
+        <v>0.02614772902847955</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3076623742.894433</v>
+        <v>2683379196.766968</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0995621351605151</v>
+        <v>0.1323299329954388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04130518929432701</v>
+        <v>0.04333126147621025</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4385054257.349498</v>
+        <v>5762554480.844954</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09893327309444248</v>
+        <v>0.1066634666303937</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02970986725914409</v>
+        <v>0.03218640034806108</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2223987942.70948</v>
+        <v>2327062911.762794</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1240445756635372</v>
+        <v>0.08851515385776325</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03017733596914608</v>
+        <v>0.03444550399900001</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1392717147.712822</v>
+        <v>1307208901.565336</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09090875546045633</v>
+        <v>0.097521876184505</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04022812972268695</v>
+        <v>0.04300618142268419</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1268358616.3322</v>
+        <v>1566151130.751331</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07577711197750399</v>
+        <v>0.07281643810569996</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03270867631913196</v>
+        <v>0.03201920886660211</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2249207772.907872</v>
+        <v>2952446070.128533</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1890616190071946</v>
+        <v>0.1783301451381827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05842759187294179</v>
+        <v>0.05263938227656757</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>990051132.805523</v>
+        <v>1067025927.659713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08685031122593681</v>
+        <v>0.1129179280166867</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02617290931229865</v>
+        <v>0.02094076652333566</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1200306860.526925</v>
+        <v>1129961018.505098</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1027249416522544</v>
+        <v>0.08466788448795087</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03688678190112192</v>
+        <v>0.02778336592571505</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2249101295.199934</v>
+        <v>2198289736.905041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1329117550912508</v>
+        <v>0.1128579152189593</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02273140084957793</v>
+        <v>0.02412955087302697</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2087775662.419629</v>
+        <v>2535284221.784453</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06819637146858706</v>
+        <v>0.1037217228446937</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03986424325084675</v>
+        <v>0.03798373279259216</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1662429020.266891</v>
+        <v>2116792794.064217</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1102479533853444</v>
+        <v>0.08385417719468823</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02555340218271687</v>
+        <v>0.0330997620381211</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1544201399.635345</v>
+        <v>1826117303.755349</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1286578296091406</v>
+        <v>0.1847466067246491</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02175766564104542</v>
+        <v>0.0279660609158141</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1227421497.003464</v>
+        <v>1096350169.350451</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1200570829180212</v>
+        <v>0.1216697501997862</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03765402433172759</v>
+        <v>0.04791139193539711</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2770406740.92105</v>
+        <v>2751048091.660673</v>
       </c>
       <c r="F41" t="n">
-        <v>0.14397776453398</v>
+        <v>0.1195394377629193</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03753809547339666</v>
+        <v>0.04153644028186212</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3715890853.238488</v>
+        <v>2855561745.784261</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08614440642872208</v>
+        <v>0.09544523135373546</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03978492416274577</v>
+        <v>0.0344206046870312</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2224960303.608174</v>
+        <v>2152913824.415556</v>
       </c>
       <c r="F43" t="n">
-        <v>0.162425440809728</v>
+        <v>0.1924731652844471</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01645315194877379</v>
+        <v>0.01819755121953057</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2277689074.204012</v>
+        <v>1579788025.228781</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0872628851594643</v>
+        <v>0.09116198721688114</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03645756422633195</v>
+        <v>0.03716798562610517</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2212461725.683281</v>
+        <v>1621226766.244862</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1742304624774527</v>
+        <v>0.1738762478378714</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04462612817781409</v>
+        <v>0.04743875226221749</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3724836354.327169</v>
+        <v>5207696939.189577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1502126901232048</v>
+        <v>0.1130697551909464</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05472491625440581</v>
+        <v>0.05509675370278655</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4640853391.776105</v>
+        <v>5079295273.486796</v>
       </c>
       <c r="F47" t="n">
-        <v>0.168075729100485</v>
+        <v>0.1258559407243394</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05411439327469953</v>
+        <v>0.04194004821289368</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2937509745.159706</v>
+        <v>4664288753.709144</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09682415444183737</v>
+        <v>0.1096671290182768</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03067273962506302</v>
+        <v>0.02703900103620241</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1686327168.595012</v>
+        <v>1690777385.042647</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1323274551913996</v>
+        <v>0.1517118368316188</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02910485894657508</v>
+        <v>0.03094136754209864</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3915566916.980229</v>
+        <v>4106406028.414004</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1550704560634531</v>
+        <v>0.1365559340085867</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03555808153568964</v>
+        <v>0.03517104901102248</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1287260688.666188</v>
+        <v>1500865135.575981</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1613573298643945</v>
+        <v>0.1434181861827249</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0379406102427281</v>
+        <v>0.03621597396582541</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4217126841.797016</v>
+        <v>3749485875.426332</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1358069534237092</v>
+        <v>0.08710365995839708</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04597295496450567</v>
+        <v>0.0447105396368604</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3491032302.478739</v>
+        <v>2764664311.506328</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1762039453976298</v>
+        <v>0.164474396666589</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02317620702655518</v>
+        <v>0.02845199314218333</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3469474075.105481</v>
+        <v>3669097496.659802</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1495447592774488</v>
+        <v>0.147573768142793</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03354435022844462</v>
+        <v>0.04318921933658795</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3049327496.409611</v>
+        <v>3263706257.976545</v>
       </c>
       <c r="F55" t="n">
-        <v>0.199939057016074</v>
+        <v>0.1749491811853054</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02160305714911848</v>
+        <v>0.02305867597735562</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1192675597.558218</v>
+        <v>1799294839.923531</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1203851052649416</v>
+        <v>0.1459604668385092</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04086077172797382</v>
+        <v>0.05451115061525709</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4135854734.538234</v>
+        <v>4305122464.797524</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1370583280059797</v>
+        <v>0.1297976555289294</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02256946886461848</v>
+        <v>0.02194454085645383</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1584681549.286322</v>
+        <v>1844975547.394921</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1416691888828593</v>
+        <v>0.132859700130609</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02654440506625297</v>
+        <v>0.02825618071820125</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4848295873.787855</v>
+        <v>4766210107.411038</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08843146614943447</v>
+        <v>0.1173777793176145</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03291195413107443</v>
+        <v>0.04245150584728707</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3228129503.127109</v>
+        <v>2901992908.435886</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1432379495807672</v>
+        <v>0.1488801224597637</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02985815849350342</v>
+        <v>0.02719551576049827</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2473240222.5296</v>
+        <v>2984545816.991549</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1394912654620785</v>
+        <v>0.1385134352615937</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03266308388123696</v>
+        <v>0.02423444819405553</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1396789381.50255</v>
+        <v>2047823260.80183</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1792058958793716</v>
+        <v>0.1729311051484725</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03710080201869193</v>
+        <v>0.03730707112691631</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5012595634.976936</v>
+        <v>5068451163.029134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07994333048417715</v>
+        <v>0.08759523026942109</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02927105477721021</v>
+        <v>0.04539303128869583</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4974476551.958466</v>
+        <v>5189349429.320354</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1715252581016569</v>
+        <v>0.1715862292435482</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03354593836069634</v>
+        <v>0.02684136626991906</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3868919203.764894</v>
+        <v>5187391114.249556</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1721720694382699</v>
+        <v>0.1655235638254807</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02113019604769346</v>
+        <v>0.0295918115934456</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5169243262.457878</v>
+        <v>5637587150.262078</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1190302499792328</v>
+        <v>0.1032104853351583</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04461849467081719</v>
+        <v>0.05004592315641507</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2931187117.835311</v>
+        <v>2766220588.73557</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06258436963328126</v>
+        <v>0.1008248566154201</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03829558692558521</v>
+        <v>0.04273037223548398</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3681808594.061886</v>
+        <v>4313870527.693535</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1163332152119549</v>
+        <v>0.1200867385053261</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05105153489931049</v>
+        <v>0.04754758861250438</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2151693229.176933</v>
+        <v>2141619198.87014</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1801162388924584</v>
+        <v>0.1191915450136633</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04426030347168895</v>
+        <v>0.05325316592869477</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3713831140.245205</v>
+        <v>3405154308.323149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07836695243337388</v>
+        <v>0.08787398254459504</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03318862858373241</v>
+        <v>0.03661296999336333</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5005876807.874516</v>
+        <v>4438725862.138671</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1477144754435407</v>
+        <v>0.1408723056512793</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03300036384476433</v>
+        <v>0.03363931082722816</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1586488390.517367</v>
+        <v>1979131400.102975</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1051687908081015</v>
+        <v>0.1049236452916809</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03942873379812219</v>
+        <v>0.04238739702222798</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2658675281.313607</v>
+        <v>3265731397.914328</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09626366903067098</v>
+        <v>0.06806562053040231</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04089432402719751</v>
+        <v>0.03878414464058393</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3002363558.891559</v>
+        <v>3800538886.652961</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1703479667948243</v>
+        <v>0.163349370509939</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03413001616221853</v>
+        <v>0.03252524812430774</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1981761420.708825</v>
+        <v>2065469411.667487</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1188740926184459</v>
+        <v>0.1177256622584336</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03121693595440551</v>
+        <v>0.02423652445336359</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4764080290.676789</v>
+        <v>3608618574.634044</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09750904903604635</v>
+        <v>0.07730566173146869</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02986126929132417</v>
+        <v>0.02479691503385373</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1472959071.875785</v>
+        <v>1403644282.873315</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1387383233668205</v>
+        <v>0.1699761658167118</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03046018725419505</v>
+        <v>0.02263124622510765</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3001686577.798344</v>
+        <v>3313997312.209332</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1028382363653923</v>
+        <v>0.1168647997830457</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03976204633472571</v>
+        <v>0.03632998063281346</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1758209839.632486</v>
+        <v>1566265118.293175</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1558910109406257</v>
+        <v>0.1534380897630496</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03293911142963217</v>
+        <v>0.02666242875129199</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4983741963.900676</v>
+        <v>4272837403.447875</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07268539424047139</v>
+        <v>0.07144309250662108</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02525463921206986</v>
+        <v>0.03318145777894964</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4678617846.681667</v>
+        <v>4937833674.595016</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08331036243972448</v>
+        <v>0.1257932589355513</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02321347534263523</v>
+        <v>0.03250980525987143</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5660719753.473262</v>
+        <v>4432607344.302406</v>
       </c>
       <c r="F82" t="n">
-        <v>0.139445222900207</v>
+        <v>0.1622646269192347</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02701359206939248</v>
+        <v>0.01903915925622892</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2300145227.539028</v>
+        <v>2403884522.733746</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1121652313536316</v>
+        <v>0.1196402178321453</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03519757190472059</v>
+        <v>0.03249401525683229</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1638248632.602368</v>
+        <v>2445822923.745348</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07618187103805761</v>
+        <v>0.111699540859347</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05019897764989507</v>
+        <v>0.04385472712647437</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3554064906.295339</v>
+        <v>2409555738.21817</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1513997459224201</v>
+        <v>0.1345860365576892</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04610298304928782</v>
+        <v>0.03755324515780491</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2576009946.911117</v>
+        <v>2777152989.444352</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1046554897125402</v>
+        <v>0.1489780150617455</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02281322705334319</v>
+        <v>0.02029253268315533</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1486482978.794138</v>
+        <v>1038922791.662457</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1425203044336679</v>
+        <v>0.1453916114032451</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03061473589719399</v>
+        <v>0.03197986234309155</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2951440852.314138</v>
+        <v>3025384074.313591</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1624400362702192</v>
+        <v>0.1674077012190651</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03651031821131766</v>
+        <v>0.02672172573410198</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2812062109.758894</v>
+        <v>2183504395.583732</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1269540168065196</v>
+        <v>0.1454594847413368</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0325631993830036</v>
+        <v>0.04055304341323544</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1663333979.809727</v>
+        <v>1791779118.721693</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1289991922508547</v>
+        <v>0.09748968866145427</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03958323737341185</v>
+        <v>0.03516852489935039</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1949360744.042553</v>
+        <v>1646054686.396931</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1197315891906806</v>
+        <v>0.1689795108611861</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0521093405449676</v>
+        <v>0.0612108427472287</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2628979509.53245</v>
+        <v>2538604070.253205</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08566485621681993</v>
+        <v>0.07768021463975444</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03354589180743878</v>
+        <v>0.04161873773733096</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4064126342.908451</v>
+        <v>4685532030.48304</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1167573100009232</v>
+        <v>0.1309815608609636</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0504087602333391</v>
+        <v>0.05050122096435631</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1728581359.228276</v>
+        <v>1943088394.887658</v>
       </c>
       <c r="F94" t="n">
-        <v>0.113390882287044</v>
+        <v>0.1234276351251341</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03497751600461187</v>
+        <v>0.03537314077535198</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2095130803.355299</v>
+        <v>3078653862.35199</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09456159937348339</v>
+        <v>0.1272189999812791</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03691756633272164</v>
+        <v>0.04898419029584045</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1519173933.721515</v>
+        <v>1869633014.834246</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291187003851576</v>
+        <v>0.1417284071073483</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03753104092764561</v>
+        <v>0.0420810668773578</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3281755387.052903</v>
+        <v>5302052706.63514</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1347289800364737</v>
+        <v>0.1373975012492853</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02724119061464658</v>
+        <v>0.0253453278283793</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2634169130.28241</v>
+        <v>2571553313.218679</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09840479023590454</v>
+        <v>0.08738277192974996</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03173037804568487</v>
+        <v>0.01987409219444715</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2662409658.467587</v>
+        <v>3352073598.728983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1120293284345949</v>
+        <v>0.09037482680851362</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02934851586082096</v>
+        <v>0.02773133662631589</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2943242525.659329</v>
+        <v>4037023754.010493</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1667883911660597</v>
+        <v>0.1099914437727786</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02236377959562654</v>
+        <v>0.02628820738209679</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3118471921.667226</v>
+        <v>3215604948.145688</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1341352207034969</v>
+        <v>0.1439484344564642</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04707165174333576</v>
+        <v>0.04834420944971681</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_161.xlsx
+++ b/output/fit_clients/fit_round_161.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2084462410.010365</v>
+        <v>2259855465.68682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1023757032519266</v>
+        <v>0.07340489575352629</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02908010359585333</v>
+        <v>0.04036273506681236</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2355748032.269311</v>
+        <v>2495378831.154992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1730273545931457</v>
+        <v>0.1153305233620139</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04856831879901327</v>
+        <v>0.03298655747820876</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4429317199.326627</v>
+        <v>3427225203.518655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1282347465516237</v>
+        <v>0.1373774667788785</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03016013729061434</v>
+        <v>0.02552216893625086</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J4" t="n">
+        <v>161</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4220856652.654757</v>
+        <v>3609024504.607229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07199527738361552</v>
+        <v>0.06732545534694287</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03916998423719089</v>
+        <v>0.04903654440753655</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>160</v>
+      </c>
+      <c r="K5" t="n">
+        <v>101.2886340917214</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2427939395.111906</v>
+        <v>2149946055.696288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1313500823281418</v>
+        <v>0.1360836267527561</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04159285661440458</v>
+        <v>0.04187994507356166</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2451526115.311738</v>
+        <v>2812417973.29531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08824117637256784</v>
+        <v>0.06608707451796136</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04058884180234969</v>
+        <v>0.04233313823377015</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3617510475.87108</v>
+        <v>2793167954.321323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1736563816368155</v>
+        <v>0.1423776187192052</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0254424777933972</v>
+        <v>0.02072948869278342</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>159</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1663919118.543728</v>
+        <v>1532668335.116688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1260371362361838</v>
+        <v>0.1986443345839275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03240951575074695</v>
+        <v>0.03737236576580157</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5678688387.634124</v>
+        <v>4413216008.189983</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1764932130627477</v>
+        <v>0.1949225810772629</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04340187856302243</v>
+        <v>0.03987965560136671</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>148</v>
+      </c>
+      <c r="J10" t="n">
+        <v>161</v>
+      </c>
+      <c r="K10" t="n">
+        <v>146.2770800153751</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2870811148.436252</v>
+        <v>2860720696.066476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1151801042292259</v>
+        <v>0.1837598686002803</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04313859965925834</v>
+        <v>0.04357768111370696</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2151329695.29602</v>
+        <v>2891029147.702649</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1204471730347161</v>
+        <v>0.1253694159511923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04003809431148452</v>
+        <v>0.04054562345500914</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3594012894.340349</v>
+        <v>4463296124.2941</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07695485905429875</v>
+        <v>0.09280286407096383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02867996242047534</v>
+        <v>0.02227680793893887</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>78</v>
+      </c>
+      <c r="J13" t="n">
+        <v>161</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2924827874.098326</v>
+        <v>2758403258.886012</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1595201998567021</v>
+        <v>0.1240986225627703</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03056506044258373</v>
+        <v>0.03971780283535781</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="n">
+        <v>51.53504558972092</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1312475227.579319</v>
+        <v>1177543904.70655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08708579350052237</v>
+        <v>0.06574087003607539</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04593464639478536</v>
+        <v>0.0367457791382269</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1983864273.96837</v>
+        <v>2105616126.549524</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1066028316525552</v>
+        <v>0.09787872879526521</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03980390322587266</v>
+        <v>0.03168597781163707</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4370930298.020926</v>
+        <v>4955856942.128495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1087220792898037</v>
+        <v>0.1316411237885542</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04682202825336979</v>
+        <v>0.03917708992608044</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>78</v>
+      </c>
+      <c r="J17" t="n">
+        <v>160</v>
+      </c>
+      <c r="K17" t="n">
+        <v>122.0870474512439</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3150702985.968194</v>
+        <v>3777102132.71332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1276686464503136</v>
+        <v>0.1591356368202908</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03206932119934534</v>
+        <v>0.03022582820436414</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="n">
+        <v>161</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1208338607.806265</v>
+        <v>1349843310.720592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1392749257681913</v>
+        <v>0.130761394421586</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01853604445103302</v>
+        <v>0.0190968917726267</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1987227002.980768</v>
+        <v>2160638466.133077</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1594153383306429</v>
+        <v>0.1051639041105644</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02835299066433091</v>
+        <v>0.0257186217531029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1816624042.677022</v>
+        <v>1833311970.993333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08593248745536085</v>
+        <v>0.08411805527926984</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04542984172189491</v>
+        <v>0.04001192138167459</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3497012975.562746</v>
+        <v>2480238012.762424</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09400429719295296</v>
+        <v>0.1229968657197627</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03545176617876712</v>
+        <v>0.04532829943200622</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>41</v>
+      </c>
+      <c r="J22" t="n">
+        <v>159</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1326604140.54689</v>
+        <v>1132429960.146927</v>
       </c>
       <c r="F23" t="n">
-        <v>0.127002579579106</v>
+        <v>0.1403279997745038</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05260565161883382</v>
+        <v>0.05434507472447211</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3622789921.22136</v>
+        <v>2556225426.361195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1349619086663501</v>
+        <v>0.1297742852800568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02272411179617943</v>
+        <v>0.02641305314534313</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>48</v>
+      </c>
+      <c r="J24" t="n">
+        <v>159</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1256277235.063541</v>
+        <v>1172701952.168487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0930180565618515</v>
+        <v>0.11847074247808</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02597264185738006</v>
+        <v>0.02027650944520325</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1372062135.361277</v>
+        <v>1142820862.586459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1197777347610764</v>
+        <v>0.0801365051762632</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02514363881009686</v>
+        <v>0.03701090199264422</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2900981497.74542</v>
+        <v>3903340278.949322</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1303507402339121</v>
+        <v>0.142090103946949</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02614772902847955</v>
+        <v>0.01916162813562763</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>63</v>
+      </c>
+      <c r="J27" t="n">
+        <v>161</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2683379196.766968</v>
+        <v>2474179164.533352</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1323299329954388</v>
+        <v>0.1074031025276721</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04333126147621025</v>
+        <v>0.0324843486470091</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5762554480.844954</v>
+        <v>5044187833.805915</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1066634666303937</v>
+        <v>0.1479539221860712</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03218640034806108</v>
+        <v>0.04385105965209191</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>150</v>
+      </c>
+      <c r="J29" t="n">
+        <v>161</v>
+      </c>
+      <c r="K29" t="n">
+        <v>156.5984250487415</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2327062911.762794</v>
+        <v>2207947086.589673</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08851515385776325</v>
+        <v>0.1278755940240172</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03444550399900001</v>
+        <v>0.04003993214019056</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1307208901.565336</v>
+        <v>1194613226.913797</v>
       </c>
       <c r="F31" t="n">
-        <v>0.097521876184505</v>
+        <v>0.07722057082143413</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04300618142268419</v>
+        <v>0.04599170437284311</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1566151130.751331</v>
+        <v>1721001560.679391</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07281643810569996</v>
+        <v>0.097268205631898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03201920886660211</v>
+        <v>0.02886322886812835</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2952446070.128533</v>
+        <v>1886610049.211473</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1783301451381827</v>
+        <v>0.1557603264270128</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05263938227656757</v>
+        <v>0.05588991505282156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1067025927.659713</v>
+        <v>1242895849.986326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1129179280166867</v>
+        <v>0.1194899975581661</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02094076652333566</v>
+        <v>0.02736116069535589</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1129961018.505098</v>
+        <v>1029304893.739068</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08466788448795087</v>
+        <v>0.1054626785716731</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02778336592571505</v>
+        <v>0.04232563856868223</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2198289736.905041</v>
+        <v>2056216761.522082</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1128579152189593</v>
+        <v>0.1606389375970242</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02412955087302697</v>
+        <v>0.02469147429299994</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2535284221.784453</v>
+        <v>2422994587.974776</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1037217228446937</v>
+        <v>0.08625018025232964</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03798373279259216</v>
+        <v>0.04158018207901151</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2116792794.064217</v>
+        <v>1393915121.393895</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08385417719468823</v>
+        <v>0.1118770936310346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0330997620381211</v>
+        <v>0.03923856807213425</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1826117303.755349</v>
+        <v>1669670053.487147</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1847466067246491</v>
+        <v>0.1209060757328355</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0279660609158141</v>
+        <v>0.02878773915785808</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1096350169.350451</v>
+        <v>1701222830.491004</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1216697501997862</v>
+        <v>0.133561105017969</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04791139193539711</v>
+        <v>0.04938664040580223</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2751048091.660673</v>
+        <v>2284655675.57288</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1195394377629193</v>
+        <v>0.1052518424342544</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04153644028186212</v>
+        <v>0.03174571235095367</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2855561745.784261</v>
+        <v>2893162747.362863</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09544523135373546</v>
+        <v>0.09379286742266994</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0344206046870312</v>
+        <v>0.03980950103115281</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>60</v>
+      </c>
+      <c r="J42" t="n">
+        <v>160</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59.58194869551517</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2152913824.415556</v>
+        <v>2613341225.036398</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1924731652844471</v>
+        <v>0.1340834987214072</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01819755121953057</v>
+        <v>0.01911458298216694</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1579788025.228781</v>
+        <v>2271796234.447631</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09116198721688114</v>
+        <v>0.07937906192287385</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03716798562610517</v>
+        <v>0.02694502719837958</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1621226766.244862</v>
+        <v>1619662972.087645</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1738762478378714</v>
+        <v>0.1579804530450303</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04743875226221749</v>
+        <v>0.04853837885829294</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5207696939.189577</v>
+        <v>5458473452.844577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1130697551909464</v>
+        <v>0.139699243913592</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05509675370278655</v>
+        <v>0.05347742199813198</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>91</v>
+      </c>
+      <c r="J46" t="n">
+        <v>160</v>
+      </c>
+      <c r="K46" t="n">
+        <v>135.7093368139897</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5079295273.486796</v>
+        <v>5123461961.244541</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1258559407243394</v>
+        <v>0.137007702639448</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04194004821289368</v>
+        <v>0.03923442252991258</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>71</v>
+      </c>
+      <c r="J47" t="n">
+        <v>161</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4664288753.709144</v>
+        <v>3084809212.237344</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1096671290182768</v>
+        <v>0.1036925900875932</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02703900103620241</v>
+        <v>0.02756776066501656</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>72</v>
+      </c>
+      <c r="J48" t="n">
+        <v>159</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1690777385.042647</v>
+        <v>1715555352.916425</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1517118368316188</v>
+        <v>0.1800932127176263</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03094136754209864</v>
+        <v>0.03675513281185785</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4106406028.414004</v>
+        <v>4032097287.566703</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1365559340085867</v>
+        <v>0.1602873723135018</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03517104901102248</v>
+        <v>0.04772057323158602</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>53</v>
+      </c>
+      <c r="J50" t="n">
+        <v>161</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1500865135.575981</v>
+        <v>1161405766.022934</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1434181861827249</v>
+        <v>0.1321709816686548</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03621597396582541</v>
+        <v>0.04272391513947396</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3749485875.426332</v>
+        <v>4352189139.294767</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08710365995839708</v>
+        <v>0.09031072826409657</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0447105396368604</v>
+        <v>0.04010327213495754</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>116</v>
+      </c>
+      <c r="J52" t="n">
+        <v>161</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2764664311.506328</v>
+        <v>2532205379.261941</v>
       </c>
       <c r="F53" t="n">
-        <v>0.164474396666589</v>
+        <v>0.1872768242621857</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02845199314218333</v>
+        <v>0.02646955914938962</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3669097496.659802</v>
+        <v>3982355772.072388</v>
       </c>
       <c r="F54" t="n">
-        <v>0.147573768142793</v>
+        <v>0.1260866831809051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04318921933658795</v>
+        <v>0.04178704682330739</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>78</v>
+      </c>
+      <c r="J54" t="n">
+        <v>161</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2364,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3263706257.976545</v>
+        <v>4103708793.067317</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1749491811853054</v>
+        <v>0.1537359237842537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02305867597735562</v>
+        <v>0.02122056321700111</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>73</v>
+      </c>
+      <c r="J55" t="n">
+        <v>161</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2399,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1799294839.923531</v>
+        <v>1892152494.980442</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1459604668385092</v>
+        <v>0.1092073585494127</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05451115061525709</v>
+        <v>0.03653882941862865</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2434,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4305122464.797524</v>
+        <v>4295630656.001554</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1297976555289294</v>
+        <v>0.1665514801859278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02194454085645383</v>
+        <v>0.01731493579465343</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>66</v>
+      </c>
+      <c r="J57" t="n">
+        <v>160</v>
+      </c>
+      <c r="K57" t="n">
+        <v>123.2430936830825</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1844975547.394921</v>
+        <v>1573331272.90972</v>
       </c>
       <c r="F58" t="n">
-        <v>0.132859700130609</v>
+        <v>0.191089158077846</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02825618071820125</v>
+        <v>0.03181366583312345</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4766210107.411038</v>
+        <v>3401027740.849629</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1173777793176145</v>
+        <v>0.1121373489946088</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04245150584728707</v>
+        <v>0.04007831437414308</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>77</v>
+      </c>
+      <c r="J59" t="n">
+        <v>161</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2547,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2901992908.435886</v>
+        <v>3421933236.039445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1488801224597637</v>
+        <v>0.1396768683719446</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02719551576049827</v>
+        <v>0.02875195888053771</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="n">
+        <v>81.38359774012244</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2984545816.991549</v>
+        <v>3098383472.794702</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1385134352615937</v>
+        <v>0.1085119437633805</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02423444819405553</v>
+        <v>0.02031058391126244</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2047823260.80183</v>
+        <v>2049165283.331244</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1729311051484725</v>
+        <v>0.1392423146682462</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03730707112691631</v>
+        <v>0.03972763256350961</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5068451163.029134</v>
+        <v>3680652869.061165</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08759523026942109</v>
+        <v>0.09980914917560685</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04539303128869583</v>
+        <v>0.04268378029309967</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>79</v>
+      </c>
+      <c r="J63" t="n">
+        <v>160</v>
+      </c>
+      <c r="K63" t="n">
+        <v>86.91187151537775</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5189349429.320354</v>
+        <v>4171786586.525492</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1715862292435482</v>
+        <v>0.1795870902143639</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02684136626991906</v>
+        <v>0.03037439891841923</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>79</v>
+      </c>
+      <c r="J64" t="n">
+        <v>161</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5187391114.249556</v>
+        <v>4933661782.669524</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1655235638254807</v>
+        <v>0.1459000982402195</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0295918115934456</v>
+        <v>0.02301275243384284</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>133</v>
+      </c>
+      <c r="J65" t="n">
+        <v>161</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.0061268480016</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5637587150.262078</v>
+        <v>4808257478.121629</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1032104853351583</v>
+        <v>0.1306081421834872</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05004592315641507</v>
+        <v>0.04916260843171839</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>79</v>
+      </c>
+      <c r="J66" t="n">
+        <v>161</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2766220588.73557</v>
+        <v>2246701781.485047</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1008248566154201</v>
+        <v>0.06290323605730366</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04273037223548398</v>
+        <v>0.03820906034528297</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2833,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4313870527.693535</v>
+        <v>4746525818.715257</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1200867385053261</v>
+        <v>0.10279056547327</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04754758861250438</v>
+        <v>0.04108556667508922</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>81</v>
+      </c>
+      <c r="J68" t="n">
+        <v>160</v>
+      </c>
+      <c r="K68" t="n">
+        <v>126.7964239784172</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2141619198.87014</v>
+        <v>1882139233.259858</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1191915450136633</v>
+        <v>0.1463630807601883</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05325316592869477</v>
+        <v>0.03871428510063148</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3405154308.323149</v>
+        <v>3460804639.271743</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08787398254459504</v>
+        <v>0.07344327789318893</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03661296999336333</v>
+        <v>0.0427192459619011</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>22</v>
+      </c>
+      <c r="J70" t="n">
+        <v>161</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4438725862.138671</v>
+        <v>4542198246.07211</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1408723056512793</v>
+        <v>0.1696645723490008</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03363931082722816</v>
+        <v>0.02472265624521848</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>126</v>
+      </c>
+      <c r="J71" t="n">
+        <v>161</v>
+      </c>
+      <c r="K71" t="n">
+        <v>136.1709447725164</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1979131400.102975</v>
+        <v>2138907562.62783</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1049236452916809</v>
+        <v>0.1003441015266028</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04238739702222798</v>
+        <v>0.04200344156662819</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3265731397.914328</v>
+        <v>2828269981.473297</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06806562053040231</v>
+        <v>0.0742065756489332</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03878414464058393</v>
+        <v>0.04488591434563461</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3800538886.652961</v>
+        <v>3001409535.200585</v>
       </c>
       <c r="F74" t="n">
-        <v>0.163349370509939</v>
+        <v>0.1478324837986379</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03252524812430774</v>
+        <v>0.02204546169244381</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2065469411.667487</v>
+        <v>1769903286.331574</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1177256622584336</v>
+        <v>0.1322712897387703</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02423652445336359</v>
+        <v>0.02934405462241529</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3608618574.634044</v>
+        <v>4442262232.845891</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07730566173146869</v>
+        <v>0.08047946984357364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02479691503385373</v>
+        <v>0.02972687484411277</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>74</v>
+      </c>
+      <c r="J76" t="n">
+        <v>160</v>
+      </c>
+      <c r="K76" t="n">
+        <v>110.603899437486</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1403644282.873315</v>
+        <v>2273256913.949126</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1699761658167118</v>
+        <v>0.1217848953214649</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02263124622510765</v>
+        <v>0.02368122206566163</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3313997312.209332</v>
+        <v>4812650603.144084</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1168647997830457</v>
+        <v>0.1050193911634404</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03632998063281346</v>
+        <v>0.03808463538212701</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>82</v>
+      </c>
+      <c r="J78" t="n">
+        <v>161</v>
+      </c>
+      <c r="K78" t="n">
+        <v>139.7623581173247</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1566265118.293175</v>
+        <v>1296199116.933525</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1534380897630496</v>
+        <v>0.1089979350100486</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02666242875129199</v>
+        <v>0.02449698863895064</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4272837403.447875</v>
+        <v>4455975312.805264</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07144309250662108</v>
+        <v>0.1093971673058701</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03318145777894964</v>
+        <v>0.02993222030183154</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>78</v>
+      </c>
+      <c r="J80" t="n">
+        <v>161</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4937833674.595016</v>
+        <v>4660167590.097873</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1257932589355513</v>
+        <v>0.08592694015044117</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03250980525987143</v>
+        <v>0.02468501266452467</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>74</v>
+      </c>
+      <c r="J81" t="n">
+        <v>160</v>
+      </c>
+      <c r="K81" t="n">
+        <v>116.6111142799816</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4432607344.302406</v>
+        <v>3559085652.107793</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1622646269192347</v>
+        <v>0.1698920034481073</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01903915925622892</v>
+        <v>0.02376181200817426</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>117</v>
+      </c>
+      <c r="J82" t="n">
+        <v>160</v>
+      </c>
+      <c r="K82" t="n">
+        <v>94.00899357534648</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2403884522.733746</v>
+        <v>2197777029.105661</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1196402178321453</v>
+        <v>0.1208949389183534</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03249401525683229</v>
+        <v>0.03406060123254939</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2445822923.745348</v>
+        <v>1810245073.911348</v>
       </c>
       <c r="F84" t="n">
-        <v>0.111699540859347</v>
+        <v>0.09661525503824436</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04385472712647437</v>
+        <v>0.03269331964206393</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2409555738.21817</v>
+        <v>2997585652.417554</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1345860365576892</v>
+        <v>0.1709411476274486</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03755324515780491</v>
+        <v>0.03616726186330132</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2777152989.444352</v>
+        <v>2319889809.357992</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1489780150617455</v>
+        <v>0.1355796014654356</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02029253268315533</v>
+        <v>0.02274075432870184</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1038922791.662457</v>
+        <v>1403722288.802777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1453916114032451</v>
+        <v>0.137518507573626</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03197986234309155</v>
+        <v>0.03753181745599387</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3025384074.313591</v>
+        <v>2254958693.683349</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1674077012190651</v>
+        <v>0.1610518116732068</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02672172573410198</v>
+        <v>0.03986782939093519</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2183504395.583732</v>
+        <v>2545125086.958759</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1454594847413368</v>
+        <v>0.1056803553663229</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04055304341323544</v>
+        <v>0.02914865181930015</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1791779118.721693</v>
+        <v>1304498144.807792</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09748968866145427</v>
+        <v>0.1270515298020481</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03516852489935039</v>
+        <v>0.05485580847631492</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1646054686.396931</v>
+        <v>1573503975.601835</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1689795108611861</v>
+        <v>0.1597247841904023</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0612108427472287</v>
+        <v>0.05708747684602304</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2538604070.253205</v>
+        <v>1835263456.922011</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07768021463975444</v>
+        <v>0.08411194575470635</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04161873773733096</v>
+        <v>0.03516197877128894</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4685532030.48304</v>
+        <v>5050360666.565536</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1309815608609636</v>
+        <v>0.1362271144571997</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05050122096435631</v>
+        <v>0.05330747939983842</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>72</v>
+      </c>
+      <c r="J93" t="n">
+        <v>160</v>
+      </c>
+      <c r="K93" t="n">
+        <v>127.5197816589389</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1943088394.887658</v>
+        <v>2315450652.242261</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1234276351251341</v>
+        <v>0.1040357328910314</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03537314077535198</v>
+        <v>0.03476974744132811</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3078653862.35199</v>
+        <v>3051905065.222879</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1272189999812791</v>
+        <v>0.09554809289116603</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04898419029584045</v>
+        <v>0.03633020584675528</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1869633014.834246</v>
+        <v>1673155869.630429</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1417284071073483</v>
+        <v>0.1139170702308571</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0420810668773578</v>
+        <v>0.03273771699026645</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5302052706.63514</v>
+        <v>3271815693.559705</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373975012492853</v>
+        <v>0.1645365998471885</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0253453278283793</v>
+        <v>0.01920647190343556</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>77</v>
+      </c>
+      <c r="J97" t="n">
+        <v>161</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2571553313.218679</v>
+        <v>2583217663.077967</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08738277192974996</v>
+        <v>0.09121665175035333</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01987409219444715</v>
+        <v>0.02524445731014428</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>38</v>
+      </c>
+      <c r="J98" t="n">
+        <v>160</v>
+      </c>
+      <c r="K98" t="n">
+        <v>40.60315077321273</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3352073598.728983</v>
+        <v>2920827582.101334</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09037482680851362</v>
+        <v>0.1267098284862282</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02773133662631589</v>
+        <v>0.03083698632519283</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4037023754.010493</v>
+        <v>3548085934.688172</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1099914437727786</v>
+        <v>0.1756182413267728</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02628820738209679</v>
+        <v>0.01772619561455365</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>67</v>
+      </c>
+      <c r="J100" t="n">
+        <v>160</v>
+      </c>
+      <c r="K100" t="n">
+        <v>81.5741667959328</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3215604948.145688</v>
+        <v>2231089672.707666</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1439484344564642</v>
+        <v>0.2003148770438817</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04834420944971681</v>
+        <v>0.03727065287659864</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>158</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
